--- a/experiment results.xlsx
+++ b/experiment results.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishantnair/DSCI-601/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DB53D1B-52E0-FC4E-A555-B106A191B495}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1F8127-AC33-9645-BFB9-945C52D4E925}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="680" windowWidth="28040" windowHeight="17440" xr2:uid="{4DBE1AA7-F71D-5544-B5F8-D3069347F256}"/>
+    <workbookView xWindow="7400" yWindow="1160" windowWidth="28040" windowHeight="17440" xr2:uid="{4DBE1AA7-F71D-5544-B5F8-D3069347F256}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Results Comparison" sheetId="1" r:id="rId1"/>
+    <sheet name="Classification Report" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="40">
   <si>
     <t>F1</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>Run Time</t>
-  </si>
-  <si>
     <t>LinearSVC</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>es_pe</t>
+  </si>
+  <si>
+    <t>LogisticRegression</t>
   </si>
 </sst>
 </file>
@@ -232,12 +232,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FC977E-9B67-1645-A0A5-DAD9D05ED8CB}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -560,179 +562,206 @@
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>0.88900000000000001</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>0.81</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="6">
         <v>0.85499999999999998</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <v>0.78800000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G3" s="6">
+        <v>0.78100000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>0.88900000000000001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>0.80500000000000005</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <v>0.84499999999999997</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>0.78400000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G4" s="6">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>0.88900000000000001</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>0.81699999999999995</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>0.51600000000000001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <v>0.86499999999999999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>0.79200000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G5" s="6">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>0.88900000000000001</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>0.80400000000000005</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <v>0.84399999999999997</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>0.78500000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G6" s="6">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
         <v>1.39</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>1.08</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <v>3.59</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <v>0.69</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G7" s="6">
+        <v>543.57000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="L12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -751,423 +780,389 @@
       <c r="F13" s="1">
         <v>0.81</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="G13" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
         <v>0.93</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>0.84</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>0.01</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>0.93</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O13" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="H14" s="2" t="s">
+      <c r="E14" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="L14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
         <v>0.93</v>
       </c>
       <c r="C15" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N22" s="1">
         <v>0.82</v>
       </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="O22" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
         <v>0.91</v>
       </c>
-      <c r="F15" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1">
+      <c r="N23" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="W23" s="1">
         <v>0.94</v>
       </c>
-      <c r="M15" s="1">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="H17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.73</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.73</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="H24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="O24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="R25" s="1">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="R26" s="1">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="H27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="O27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1176,11 +1171,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3ED008-18C9-DF43-BDD6-6938B37914D1}">
-  <dimension ref="A2:E85"/>
+  <dimension ref="A2:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1189,29 +1182,29 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>0.79</v>
@@ -1228,7 +1221,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4">
         <v>0.84</v>
@@ -1245,7 +1238,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.83</v>
@@ -1262,7 +1255,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4">
         <v>0.83</v>
@@ -1279,7 +1272,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>0.98</v>
@@ -1296,7 +1289,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>0.94</v>
@@ -1313,7 +1306,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>0.91</v>
@@ -1330,7 +1323,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>0.88</v>
@@ -1347,7 +1340,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>0.81</v>
@@ -1364,7 +1357,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>0.97</v>
@@ -1381,7 +1374,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <v>0.98</v>
@@ -1398,7 +1391,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4">
         <v>0.93</v>
@@ -1415,7 +1408,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4">
         <v>0.93</v>
@@ -1432,7 +1425,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>0.83</v>
@@ -1449,12 +1442,12 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1">
         <v>0.85</v>
@@ -1471,7 +1464,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="4">
         <v>0.76</v>
@@ -1488,7 +1481,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="4">
         <v>0.68</v>
@@ -1505,7 +1498,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="4">
         <v>0.87</v>
@@ -1522,7 +1515,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1">
         <v>0.95</v>
@@ -1539,7 +1532,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1">
         <v>0.86</v>
@@ -1556,7 +1549,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>0.85</v>
@@ -1573,7 +1566,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>0.73</v>
@@ -1590,7 +1583,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1">
         <v>0.71</v>
@@ -1607,7 +1600,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>0.86</v>
@@ -1624,7 +1617,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1">
         <v>0.97</v>
@@ -1641,7 +1634,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="4">
         <v>0.82</v>
@@ -1658,7 +1651,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="4">
         <v>0.86</v>
@@ -1675,7 +1668,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1">
         <v>0.68</v>
@@ -1692,12 +1685,12 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="1">
         <v>7.0000000000000007E-2</v>
@@ -1714,7 +1707,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
@@ -1731,7 +1724,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" s="4">
         <v>0</v>
@@ -1748,7 +1741,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -1765,7 +1758,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -1782,7 +1775,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
@@ -1799,7 +1792,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
@@ -1816,7 +1809,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
@@ -1833,7 +1826,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46" s="1">
         <v>7.0000000000000007E-2</v>
@@ -1850,7 +1843,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -1867,7 +1860,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -1884,7 +1877,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
@@ -1901,7 +1894,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
@@ -1918,7 +1911,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" s="1">
         <v>0.09</v>
@@ -1935,12 +1928,12 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" s="1">
         <v>0.84</v>
@@ -1957,7 +1950,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B56" s="4">
         <v>0.7</v>
@@ -1974,7 +1967,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B57" s="4">
         <v>0.6</v>
@@ -1991,7 +1984,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" s="4">
         <v>0.97</v>
@@ -2008,7 +2001,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59" s="1">
         <v>0.99</v>
@@ -2025,7 +2018,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60" s="1">
         <v>0.87</v>
@@ -2042,7 +2035,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B61" s="1">
         <v>0.89</v>
@@ -2059,7 +2052,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B62" s="1">
         <v>0.88</v>
@@ -2076,7 +2069,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1">
         <v>0.81</v>
@@ -2093,7 +2086,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B64" s="1">
         <v>0.94</v>
@@ -2110,7 +2103,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B65" s="1">
         <v>0.99</v>
@@ -2127,7 +2120,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66" s="4">
         <v>0.91</v>
@@ -2144,7 +2137,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" s="4">
         <v>0.94</v>
@@ -2161,7 +2154,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B68" s="1">
         <v>0.79</v>
@@ -2178,12 +2171,12 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72" s="1">
         <v>0.53</v>
@@ -2200,7 +2193,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B73" s="4">
         <v>0.79</v>
@@ -2217,7 +2210,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B74" s="4">
         <v>0.82</v>
@@ -2234,7 +2227,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B75" s="4">
         <v>0.68</v>
@@ -2251,7 +2244,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B76" s="1">
         <v>0.87</v>
@@ -2268,7 +2261,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77" s="1">
         <v>0.94</v>
@@ -2285,7 +2278,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B78" s="1">
         <v>0.74</v>
@@ -2302,7 +2295,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B79" s="1">
         <v>0.82</v>
@@ -2319,7 +2312,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B80" s="1">
         <v>0.73</v>
@@ -2336,7 +2329,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B81" s="1">
         <v>0.93</v>
@@ -2353,7 +2346,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B82" s="1">
         <v>0.91</v>
@@ -2370,7 +2363,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B83" s="4">
         <v>0.82</v>
@@ -2387,7 +2380,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B84" s="4">
         <v>0.81</v>
@@ -2404,7 +2397,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B85" s="1">
         <v>0.7</v>
@@ -2416,6 +2409,249 @@
         <v>0.72</v>
       </c>
       <c r="E85" s="1">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E89" s="1">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="C90" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="E90" s="4">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="E91" s="4">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="E92" s="4">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="E93" s="1">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="E94" s="1">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E95" s="1">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="E96" s="1">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E97" s="1">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E98" s="1">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E99" s="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="E100" s="4">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="E101" s="4">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="E102" s="1">
         <v>966</v>
       </c>
     </row>
